--- a/results/mp/deberta/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,115 +55,115 @@
     <t>panic</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>well</t>
@@ -769,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1001,7 +1001,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9655172413793104</v>
@@ -1051,7 +1051,7 @@
         <v>453</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.9615384615384616</v>
@@ -1080,28 +1080,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.08695652173913043</v>
+        <v>0.006777893639207508</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>147</v>
+        <v>1905</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1126,32 +1126,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.006777893639207508</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>238</v>
-      </c>
-      <c r="E9">
-        <v>0.95</v>
-      </c>
-      <c r="F9">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1905</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1177,7 +1153,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.8666666666666667</v>
@@ -1203,7 +1179,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.8632478632478633</v>
@@ -1229,7 +1205,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.8363636363636363</v>
@@ -1255,7 +1231,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.8346456692913385</v>
@@ -1281,7 +1257,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.8125</v>
@@ -1307,7 +1283,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.7857142857142857</v>
@@ -1333,7 +1309,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.7777777777777778</v>
@@ -1359,7 +1335,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.7619047619047619</v>
@@ -1385,7 +1361,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.76</v>
@@ -1411,7 +1387,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.7352941176470589</v>
@@ -1437,7 +1413,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.7341772151898734</v>
@@ -1463,7 +1439,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.7272727272727273</v>
@@ -1489,7 +1465,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.7222222222222222</v>
@@ -1515,7 +1491,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.7021276595744681</v>
@@ -1541,7 +1517,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.7</v>
@@ -1567,7 +1543,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.6879432624113475</v>
@@ -1593,7 +1569,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.6666666666666666</v>
@@ -1619,59 +1595,59 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L27">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.6521739130434783</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.6086956521739131</v>
@@ -1697,7 +1673,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.6071428571428571</v>
@@ -1723,7 +1699,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.5909090909090909</v>
@@ -1749,7 +1725,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>0.5714285714285714</v>
@@ -1775,7 +1751,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>0.5555555555555556</v>
@@ -1801,28 +1777,28 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.549079754601227</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L34">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1830,25 +1806,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.5490196078431373</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1856,13 +1832,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.5396825396825397</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>0.9399999999999999</v>
@@ -1874,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1882,25 +1858,25 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.5333333333333333</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -3621,7 +3597,7 @@
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K104">
         <v>0.1056338028169014</v>
